--- a/assets/docs/Exa_8.2B.xlsx
+++ b/assets/docs/Exa_8.2B.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/baa274beb3a24b9b/Documents/GitHub/Sanjaya/assets/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B716320-0265-44D0-8B83-0B645F2148EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4B716320-0265-44D0-8B83-0B645F2148EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E07626EF-CF24-4F35-AA75-CD878874BA9F}"/>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="30" windowWidth="11060" windowHeight="9450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diets" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -463,7 +461,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1385,32 +1383,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/assets/docs/Exa_8.2B.xlsx
+++ b/assets/docs/Exa_8.2B.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,8 +15,11 @@
   <sheets>
     <sheet name="Diets" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -44,9 +47,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Diet A</t>
   </si>
   <si>
@@ -59,9 +59,6 @@
     <t>SD</t>
   </si>
   <si>
-    <t>Diet B</t>
-  </si>
-  <si>
     <t>Median</t>
   </si>
   <si>
@@ -72,6 +69,12 @@
   </si>
   <si>
     <t>IQR</t>
+  </si>
+  <si>
+    <t>Diet B</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -464,9 +467,9 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.6"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6" ht="12.95">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +485,7 @@
         <v>3.7090000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13">
+    <row r="3" spans="1:6" ht="12.95">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -490,17 +493,17 @@
         <v>7.0869999999999997</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="F3" s="5">
         <f>COUNT(B2:B51)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13">
+    <row r="4" spans="1:6" ht="12.95">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -508,14 +511,14 @@
         <v>6.7539999999999996</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="6">
         <f>AVERAGE(B2:B51)</f>
         <v>5.3411999999999988</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13">
+    <row r="5" spans="1:6" ht="12.95">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -523,14 +526,14 @@
         <v>8.9939999999999998</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="6">
         <f>STDEV(B2:B51)</f>
         <v>2.5356026132351492</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13">
+    <row r="6" spans="1:6" ht="12.95">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -538,14 +541,14 @@
         <v>9.077</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="7">
         <f>MEDIAN(B2:B51)</f>
         <v>5.6419999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13">
+    <row r="7" spans="1:6" ht="12.95">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -553,14 +556,14 @@
         <v>6.4130000000000003</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" s="7">
         <f>QUARTILE(B2:B51,1)</f>
         <v>3.7482500000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13">
+    <row r="8" spans="1:6" ht="12.95">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -568,14 +571,14 @@
         <v>5.8769999999999998</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" s="7">
         <f>QUARTILE(B2:B51,3)</f>
         <v>7.0327500000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13">
+    <row r="9" spans="1:6" ht="12.95">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -583,7 +586,7 @@
         <v>2.5720000000000001</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" s="7">
         <f>F8-F7</f>
@@ -694,7 +697,7 @@
         <v>-1.7150000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13">
+    <row r="23" spans="1:6" ht="12.95">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -702,17 +705,17 @@
         <v>4.718</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" s="5">
         <f>COUNT(B52:B101)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13">
+    <row r="24" spans="1:6" ht="12.95">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -720,14 +723,14 @@
         <v>4.0069999999999997</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" s="6">
         <f>AVERAGE(B52:B101)</f>
         <v>3.709960000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13">
+    <row r="25" spans="1:6" ht="12.95">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -735,7 +738,7 @@
         <v>7.2409999999999997</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" s="6">
         <f>STDEV(B52:B101)</f>
@@ -750,7 +753,7 @@
         <v>2.1280000000000001</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" s="8">
         <f>MEDIAN(B52:B101)</f>
@@ -765,7 +768,7 @@
         <v>6.968</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F27" s="9">
         <f>QUARTILE(B52:B101,1)</f>
@@ -780,7 +783,7 @@
         <v>4.8529999999999998</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F28" s="9">
         <f>QUARTILE(B52:B101,3)</f>
@@ -795,7 +798,7 @@
         <v>5.5E-2</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F29" s="9">
         <f>F28-F27</f>
@@ -980,7 +983,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B52" s="3">
         <v>-1.087</v>
@@ -988,7 +991,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B53" s="3">
         <v>1.819</v>
@@ -996,7 +999,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B54" s="3">
         <v>7.3999999999999996E-2</v>
@@ -1004,7 +1007,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B55" s="3">
         <v>1.7549999999999999</v>
@@ -1012,7 +1015,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B56" s="3">
         <v>1.889</v>
@@ -1020,7 +1023,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B57" s="3">
         <v>3.089</v>
@@ -1028,7 +1031,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B58" s="3">
         <v>4.008</v>
@@ -1036,7 +1039,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B59" s="3">
         <v>4.5510000000000002</v>
@@ -1044,7 +1047,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B60" s="3">
         <v>1.3720000000000001</v>
@@ -1052,7 +1055,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B61" s="3">
         <v>3.4129999999999998</v>
@@ -1060,7 +1063,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B62" s="3">
         <v>-4.1479999999999997</v>
@@ -1068,7 +1071,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B63" s="3">
         <v>2.823</v>
@@ -1076,7 +1079,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B64" s="3">
         <v>2.8650000000000002</v>
@@ -1084,7 +1087,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B65" s="3">
         <v>4.3689999999999998</v>
@@ -1092,7 +1095,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B66" s="3">
         <v>6.3369999999999997</v>
@@ -1100,7 +1103,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B67" s="3">
         <v>6.3079999999999998</v>
@@ -1108,7 +1111,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B68" s="3">
         <v>3.4940000000000002</v>
@@ -1116,7 +1119,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B69" s="3">
         <v>10.539</v>
@@ -1124,7 +1127,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B70" s="3">
         <v>3.84</v>
@@ -1132,7 +1135,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B71" s="3">
         <v>5.1230000000000002</v>
@@ -1140,7 +1143,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B72" s="3">
         <v>5.4850000000000003</v>
@@ -1148,7 +1151,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B73" s="3">
         <v>-1.8939999999999999</v>
@@ -1156,7 +1159,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B74" s="3">
         <v>8.016</v>
@@ -1164,7 +1167,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B75" s="3">
         <v>2.31</v>
@@ -1172,7 +1175,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B76" s="3">
         <v>3.8820000000000001</v>
@@ -1180,7 +1183,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B77" s="3">
         <v>7.03</v>
@@ -1188,7 +1191,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B78" s="3">
         <v>7.7270000000000003</v>
@@ -1196,7 +1199,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B79" s="3">
         <v>0.105</v>
@@ -1204,7 +1207,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B80" s="3">
         <v>3.65</v>
@@ -1212,7 +1215,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B81" s="3">
         <v>4.5469999999999997</v>
@@ -1220,7 +1223,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B82" s="3">
         <v>4.9850000000000003</v>
@@ -1228,7 +1231,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B83" s="3">
         <v>5.1589999999999998</v>
@@ -1236,7 +1239,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B84" s="3">
         <v>4.76</v>
@@ -1244,7 +1247,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B85" s="3">
         <v>4.9340000000000002</v>
@@ -1252,7 +1255,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B86" s="3">
         <v>3.1059999999999999</v>
@@ -1260,7 +1263,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B87" s="3">
         <v>5.5979999999999999</v>
@@ -1268,7 +1271,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B88" s="3">
         <v>2.1619999999999999</v>
@@ -1276,7 +1279,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B89" s="3">
         <v>6.52</v>
@@ -1284,7 +1287,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B90" s="3">
         <v>7.0460000000000003</v>
@@ -1292,7 +1295,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B91" s="3">
         <v>1.7569999999999999</v>
@@ -1300,7 +1303,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B92" s="3">
         <v>1.8480000000000001</v>
@@ -1308,7 +1311,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B93" s="3">
         <v>1.0960000000000001</v>
@@ -1316,7 +1319,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B94" s="3">
         <v>2.145</v>
@@ -1324,7 +1327,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B95" s="3">
         <v>8.4350000000000005</v>
@@ -1332,7 +1335,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B96" s="3">
         <v>6.0990000000000002</v>
@@ -1340,7 +1343,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B97" s="3">
         <v>3.972</v>
@@ -1348,7 +1351,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B98" s="3">
         <v>2.4089999999999998</v>
@@ -1356,7 +1359,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B99" s="3">
         <v>0.56899999999999995</v>
@@ -1364,7 +1367,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B100" s="3">
         <v>7.0129999999999999</v>
@@ -1372,7 +1375,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B101" s="3">
         <v>2.5939999999999999</v>
